--- a/P1_processed_data.xlsx
+++ b/P1_processed_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>光强</t>
+          <t>光谱功率(W/nm)</t>
         </is>
       </c>
     </row>
